--- a/medicine/Psychotrope/Liste_de_bières_belges/Liste_de_bières_belges.xlsx
+++ b/medicine/Psychotrope/Liste_de_bières_belges/Liste_de_bières_belges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste recense des bières belges, par ordre alphabétique. 
-Fin 2011, on compte environ 1 150 bières belges originales[1] (et une centaine de bières à étiquette), brassées et commercialisées par 146 brasseries et 44 sociétés brassicoles[2]. 
-D'autres sources plus récentes font état de plus de 2 500 bières brassées (bières à façon comprises) dans un peu plus de 200 brasseries belges de production[3].
+Fin 2011, on compte environ 1 150 bières belges originales (et une centaine de bières à étiquette), brassées et commercialisées par 146 brasseries et 44 sociétés brassicoles. 
+D'autres sources plus récentes font état de plus de 2 500 bières brassées (bières à façon comprises) dans un peu plus de 200 brasseries belges de production.
 Les bières brassées ponctuellement et/ou qui ne sont plus brassées sont indiquées en italique.
 Les bières précédées des articles Le La L’ sont classées au nom principal de la bière.
 Sommaire :
@@ -524,7 +536,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -543,6 +555,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -550,7 +564,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,6 +583,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,6 +611,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,6 +639,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,6 +667,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,6 +695,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -699,6 +723,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -706,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -725,6 +751,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,7 +760,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,6 +779,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -758,7 +788,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -777,6 +807,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -784,7 +816,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -803,6 +835,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -810,7 +844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -829,6 +863,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -836,7 +872,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -855,6 +891,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -862,7 +900,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -881,6 +919,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -888,7 +928,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -907,6 +947,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -914,7 +956,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -933,6 +975,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -940,7 +984,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -959,6 +1003,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -966,7 +1012,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -985,6 +1031,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -992,7 +1040,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1011,6 +1059,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1018,7 +1068,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1037,6 +1087,8 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1044,7 +1096,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1063,6 +1115,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1070,7 +1124,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1089,6 +1143,8 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1096,7 +1152,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1115,6 +1171,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1122,7 +1180,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1141,6 +1199,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1148,7 +1208,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1167,6 +1227,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1174,7 +1236,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1193,6 +1255,8 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1200,7 +1264,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_de_bi%C3%A8res_belges</t>
+          <t>Liste_de_bières_belges</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1219,6 +1283,8 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
